--- a/data/trans_bre/DCD-Clase-trans_bre.xlsx
+++ b/data/trans_bre/DCD-Clase-trans_bre.xlsx
@@ -618,7 +618,7 @@
         <v>2.165303556822414</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>11.55483492700409</v>
+        <v>11.55483492700408</v>
       </c>
       <c r="F4" s="6" t="n">
         <v>1.377739264489094</v>
@@ -638,22 +638,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>2.200294618991856</v>
+        <v>2.619644635956874</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.779978116550504</v>
+        <v>-1.657059477685724</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7.611998114410628</v>
+        <v>7.283369959648319</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>0.2690764754853577</v>
+        <v>0.3664200661097883</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.263564599111276</v>
+        <v>-0.2370307522286932</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7531448663828674</v>
+        <v>0.6608157376739816</v>
       </c>
     </row>
     <row r="6">
@@ -664,22 +664,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>11.05114306289342</v>
+        <v>10.98249688598264</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>6.158795177648127</v>
+        <v>5.983361201493321</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>15.77864093048268</v>
+        <v>15.51763374827139</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3.291720066937033</v>
+        <v>3.14397010143982</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.526811071507989</v>
+        <v>1.517583680619252</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>2.264438407259275</v>
+        <v>2.16650691646279</v>
       </c>
     </row>
     <row r="7">
@@ -709,7 +709,7 @@
         <v>1.273155962281238</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>1.379129715087534</v>
+        <v>1.379129715087535</v>
       </c>
     </row>
     <row r="8">
@@ -720,22 +720,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>3.195761176327103</v>
+        <v>3.431946034297611</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.710770722180869</v>
+        <v>1.574599794720941</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8.872929608709015</v>
+        <v>8.578306893043623</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4762053873398383</v>
+        <v>0.4844052093673064</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.2062111396504555</v>
+        <v>0.202769687396181</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7034422000716246</v>
+        <v>0.7139954596298406</v>
       </c>
     </row>
     <row r="9">
@@ -746,22 +746,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.97673076018725</v>
+        <v>12.57700286813546</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.849559906908485</v>
+        <v>9.6991251175114</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>17.86071893044268</v>
+        <v>18.41468914410013</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3.164614095113558</v>
+        <v>3.270481565309401</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>3.310646710868014</v>
+        <v>3.1384440081499</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.266747372703671</v>
+        <v>2.311583670657758</v>
       </c>
     </row>
     <row r="10">
@@ -782,7 +782,7 @@
         <v>11.91590111527478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>17.91340932395007</v>
+        <v>17.91340932395008</v>
       </c>
       <c r="F10" s="6" t="n">
         <v>0.5690923238332031</v>
@@ -791,7 +791,7 @@
         <v>1.744486544845285</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>1.270279162691691</v>
+        <v>1.270279162691692</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +802,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.03428986018009641</v>
+        <v>0.2159982347759859</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>5.543721924156693</v>
+        <v>5.89877583717016</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>11.74462898367779</v>
+        <v>11.6634686923542</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.01155357281271526</v>
+        <v>0.01819910903590073</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6550935861252236</v>
+        <v>0.675357187431565</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7204040366710385</v>
+        <v>0.6953482367294251</v>
       </c>
     </row>
     <row r="12">
@@ -828,22 +828,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>10.13004134483407</v>
+        <v>9.983922842695256</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>19.18876964695721</v>
+        <v>19.60217742479803</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>25.01666956672049</v>
+        <v>24.89147978397041</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>1.448664814262914</v>
+        <v>1.370605929233601</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>3.429595056675301</v>
+        <v>3.361632715124588</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.070001302721558</v>
+        <v>2.040843219843562</v>
       </c>
     </row>
     <row r="13">
@@ -864,7 +864,7 @@
         <v>4.005592869031227</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>8.11410305423804</v>
+        <v>8.114103054238036</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.6167418713562908</v>
@@ -873,7 +873,7 @@
         <v>0.5372923485792462</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.5074674352362573</v>
+        <v>0.507467435236257</v>
       </c>
     </row>
     <row r="14">
@@ -884,22 +884,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>2.142491858979009</v>
+        <v>2.290989043412877</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.323671102470589</v>
+        <v>1.378597098013196</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>4.712825936667683</v>
+        <v>4.901995434038628</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.2161792865556324</v>
+        <v>0.2413954527926706</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.1464060827469166</v>
+        <v>0.1468469308817555</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2746815480209047</v>
+        <v>0.2848605999148703</v>
       </c>
     </row>
     <row r="15">
@@ -910,22 +910,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>8.469429511422483</v>
+        <v>8.221288492868881</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>6.743952710660316</v>
+        <v>7.049870251922339</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.37621875721051</v>
+        <v>11.70212258160547</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>1.170103783285946</v>
+        <v>1.127990120130492</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.03368664228389</v>
+        <v>1.077134542246534</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7847483091878057</v>
+        <v>0.8256514628189295</v>
       </c>
     </row>
     <row r="16">
@@ -966,22 +966,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>10.20338589957847</v>
+        <v>9.87762606790821</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>3.304104228095037</v>
+        <v>3.428047980281215</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>13.2964403421441</v>
+        <v>13.34868630066534</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1.174925980656527</v>
+        <v>1.120467896526235</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2723385508543177</v>
+        <v>0.2976847199329307</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6882109227094002</v>
+        <v>0.6988675636164239</v>
       </c>
     </row>
     <row r="18">
@@ -992,22 +992,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>17.85990013406428</v>
+        <v>17.62304149744855</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>10.6618308636996</v>
+        <v>10.72004854405248</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>21.52745879990382</v>
+        <v>21.83720129296523</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>3.575091757392312</v>
+        <v>3.415102542300105</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>1.259841476585734</v>
+        <v>1.290693924125752</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>1.551155010747824</v>
+        <v>1.584783984447589</v>
       </c>
     </row>
     <row r="19">
@@ -1048,20 +1048,20 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>15.1167856773782</v>
+        <v>15.16047646820853</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>9.853686852723971</v>
+        <v>10.161602369071</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>20.36137483691957</v>
+        <v>20.05378148083373</v>
       </c>
       <c r="F20" s="6" t="inlineStr"/>
       <c r="G20" s="6" t="n">
-        <v>3.870477677747511</v>
+        <v>3.464444700514064</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>3.2358385888393</v>
+        <v>3.256615560260089</v>
       </c>
     </row>
     <row r="21">
@@ -1072,18 +1072,18 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>20.34155419278578</v>
+        <v>20.36710434772129</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>14.53705212187811</v>
+        <v>14.86942616930771</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>27.44761122955816</v>
+        <v>27.31020306642342</v>
       </c>
       <c r="F21" s="6" t="inlineStr"/>
       <c r="G21" s="6" t="inlineStr"/>
       <c r="H21" s="6" t="n">
-        <v>16.60401021509567</v>
+        <v>16.14562973955953</v>
       </c>
     </row>
     <row r="22">
@@ -1124,22 +1124,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>8.062841894503784</v>
+        <v>8.12900036025877</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>4.72206596212754</v>
+        <v>4.854083117194743</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>12.26072402312741</v>
+        <v>12.33891630061123</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1.097052566588611</v>
+        <v>1.101767391999167</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.6495431057744711</v>
+        <v>0.6605503285022172</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8885076947955852</v>
+        <v>0.8841554184005136</v>
       </c>
     </row>
     <row r="24">
@@ -1150,22 +1150,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>11.28802464100423</v>
+        <v>11.22372344308961</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.795632956248187</v>
+        <v>7.892518463557033</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>15.68006752243947</v>
+        <v>15.77874981063204</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1.858686379357339</v>
+        <v>1.871067601967641</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>1.268650280666385</v>
+        <v>1.283620485684937</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>1.305230761400177</v>
+        <v>1.316673990013512</v>
       </c>
     </row>
     <row r="25">
